--- a/uploads/excel/PurchaseRequest.xlsx
+++ b/uploads/excel/PurchaseRequest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571115BF-19DD-44F3-B504-0AD868809497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
-  <si>
-    <t>Central Negros Power Reliability, Inc.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>(Main Office) 88 Corner Rizal-Mabini Sts. Bacolod City</t>
   </si>
@@ -222,16 +220,37 @@
     <t>YYYY-MM-DD</t>
   </si>
   <si>
-    <t>sample1</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <t>PROGEN DIESELTECH SERVICES CORP.</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Hennelen</t>
+  </si>
+  <si>
+    <t>Sample Purpose</t>
+  </si>
+  <si>
+    <t>Sample End Use</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Item 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -450,6 +469,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,12 +530,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -479,45 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,22 +566,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>554522</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>57977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>505239</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>135372</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -571,7 +590,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -584,8 +603,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="381000"/>
-          <a:ext cx="1200150" cy="304800"/>
+          <a:off x="554522" y="248477"/>
+          <a:ext cx="563630" cy="657178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,21 +878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -886,241 +905,261 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="C3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="C5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="27">
+        <v>44930</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="H8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27">
+        <v>44930</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="22">
-        <v>45092</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="H8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="22">
-        <v>45092</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="23"/>
-      <c r="H9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="I9" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>1</v>
       </c>
       <c r="B14" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="E14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1133,7 +1172,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1146,7 +1185,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1159,7 +1198,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1172,7 +1211,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1186,7 +1225,22 @@
       <c r="K20" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="C2:H2"/>
@@ -1197,19 +1251,6 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1218,192 +1259,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/excel/PurchaseRequest.xlsx
+++ b/uploads/excel/PurchaseRequest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571115BF-19DD-44F3-B504-0AD868809497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+  <si>
+    <t>Central Negros Power Reliability, Inc.</t>
+  </si>
   <si>
     <t>(Main Office) 88 Corner Rizal-Mabini Sts. Bacolod City</t>
   </si>
@@ -217,40 +219,22 @@
     <t>WH Stocks</t>
   </si>
   <si>
-    <t>YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>PROGEN DIESELTECH SERVICES CORP.</t>
-  </si>
-  <si>
-    <t>BCD</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Hennelen</t>
-  </si>
-  <si>
-    <t>Sample Purpose</t>
-  </si>
-  <si>
-    <t>Sample End Use</t>
-  </si>
-  <si>
     <t>pcs</t>
   </si>
   <si>
-    <t>Item 1</t>
-  </si>
-  <si>
-    <t>Item 2</t>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>asdsa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -469,67 +453,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -537,6 +482,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,22 +550,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>554522</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57977</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>135372</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +574,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -603,8 +587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="554522" y="248477"/>
-          <a:ext cx="563630" cy="657178"/>
+          <a:off x="19050" y="381000"/>
+          <a:ext cx="1200150" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,21 +862,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -905,261 +889,245 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="C3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="C4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="C5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
       <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22">
+        <v>45162</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="23"/>
+      <c r="H8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22">
+        <v>45162</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="23"/>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="27">
-        <v>44930</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="H8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="27">
-        <v>44930</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="H9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="26">
-        <v>1</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
       <c r="B14" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="29"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="22">
+        <v>45163</v>
+      </c>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1172,7 +1140,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1185,7 +1153,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1198,7 +1166,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1211,7 +1179,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1225,22 +1193,7 @@
       <c r="K20" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I9:K9"/>
+  <mergeCells count="23">
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="C2:H2"/>
@@ -1251,6 +1204,19 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1259,192 +1225,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
